--- a/xls/KUL-Ústav archeologické památkové péče severozápadních Čech Most, v.v.i._All.xlsx
+++ b/xls/KUL-Ústav archeologické památkové péče severozápadních Čech Most, v.v.i._All.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,43 +73,16 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
     <t>IsLocalJournal</t>
   </si>
   <si>
     <t>IsPredatoryJournal</t>
-  </si>
-  <si>
-    <t>Jimp</t>
-  </si>
-  <si>
-    <t>Černá, Eva, 6899986</t>
-  </si>
-  <si>
-    <t>Proměny skel od 11. do konce 13. století v Čechách.</t>
-  </si>
-  <si>
-    <t>0323-1267</t>
-  </si>
-  <si>
-    <t>Archeologické rozhledy</t>
-  </si>
-  <si>
-    <t>2 - SPOLEČENSKÉ VĚDY -  SHVb</t>
-  </si>
-  <si>
-    <t>e92edca0417416e9d2a0a4227c6de54797d122e9</t>
-  </si>
-  <si>
-    <t>Ústav archeologické památkové péče severozápadních Čech Most, v.v.i.</t>
-  </si>
-  <si>
-    <t>AC - Archeologie, antropologie, etnologie</t>
-  </si>
-  <si>
-    <t>KUL</t>
-  </si>
-  <si>
-    <t>KUL-Ústav archeologické památkové péče severozápadních Čech Most, v.v.i.</t>
   </si>
 </sst>
 </file>
@@ -467,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,7 +451,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,61 +515,11 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>0.40000001</v>
-      </c>
-      <c r="D2">
-        <v>3.2000237</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2">
-        <v>47325011</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
